--- a/doc/tmp/super fancy research project/fancy data1.xlsx
+++ b/doc/tmp/super fancy research project/fancy data1.xlsx
@@ -19,16 +19,161 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="46">
+  <si>
+    <t xml:space="preserve">Subject ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Group</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DOB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Comments </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Variable of Interest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MRR-23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Probably not usable</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MRR-24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MRR-25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.9.2000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Excluded</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MRR-19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.5.1993</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MRR-34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MRR-12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.9.92</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MRR-02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Outlier?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MRR-03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MRR-56</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MRR-77</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MRR-81</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30/11/97</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MRR-91</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.12.1996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MRR-100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Y</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MRR-101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MRR-102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MRR-109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MRR-203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MRR-345</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MRR-455</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MRR-311</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MRR-122</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MRR-178</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MRR-156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MRR-910</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MRR-140</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Two-tailed:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">n.s.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">One-tailed:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mean</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SD</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="MM/DD/YY"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="18">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -46,54 +191,106 @@
       <family val="0"/>
     </font>
     <font>
+      <b val="true"/>
+      <sz val="24"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <i val="true"/>
+      <sz val="10"/>
+      <color rgb="FF808080"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF006600"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF996600"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFCC0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
       <sz val="10"/>
       <color rgb="FF000000"/>
-      <name val="FreeSans"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
-      <name val="FreeSans"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF333333"/>
-      <name val="FreeSans"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF808080"/>
-      <name val="FreeSans"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF006600"/>
-      <name val="FreeSans"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF996600"/>
-      <name val="FreeSans"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FFCC0000"/>
-      <name val="FreeSans"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="FreeSans"/>
+      <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -121,7 +318,7 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFCC0000"/>
-        <bgColor rgb="FF800000"/>
+        <bgColor rgb="FFFF0000"/>
       </patternFill>
     </fill>
     <fill>
@@ -140,6 +337,30 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFDDDDDD"/>
         <bgColor rgb="FFFFCCCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF7F00"/>
+        <bgColor rgb="FFFF9900"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF2BD22B"/>
+        <bgColor rgb="FF339966"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor rgb="FFCC0000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
   </fills>
@@ -191,25 +412,101 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="1" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="8" fillId="3" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="9" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="10" fillId="4" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="11" fillId="5" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="11" fillId="6" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="11" fillId="7" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="8" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="1" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="3" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="4" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="5" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="6" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="7" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="8" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="12">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="11" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="11" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="12" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="12" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -242,19 +539,19 @@
     <indexedColors>
       <rgbColor rgb="FF000000"/>
       <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFCC0000"/>
-      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF2BD22B"/>
       <rgbColor rgb="FF0000FF"/>
       <rgbColor rgb="FFFFFF00"/>
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FFCC0000"/>
       <rgbColor rgb="FF006600"/>
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FF996600"/>
       <rgbColor rgb="FF800080"/>
       <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FFB3B3B3"/>
       <rgbColor rgb="FF808080"/>
       <rgbColor rgb="FF9999FF"/>
       <rgbColor rgb="FF993366"/>
@@ -285,14 +582,14 @@
       <rgbColor rgb="FF99CC00"/>
       <rgbColor rgb="FFFFCC00"/>
       <rgbColor rgb="FFFF9900"/>
-      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FFFF7F00"/>
       <rgbColor rgb="FF666699"/>
       <rgbColor rgb="FF969696"/>
-      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF004586"/>
       <rgbColor rgb="FF339966"/>
       <rgbColor rgb="FF003300"/>
       <rgbColor rgb="FF333300"/>
-      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FFFF420E"/>
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
@@ -301,22 +598,1929 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:plotArea>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$K$38</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>X</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Sheet1!$M$38</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="1"/>
+                  <c:pt idx="0">
+                    <c:v>28.9856077139234</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Sheet1!$M$38</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="1"/>
+                  <c:pt idx="0">
+                    <c:v>28.9856077139234</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$L$37</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Mean</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$L$38</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>47.9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$K$39</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Y</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ff420e"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+            </c:dLbl>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Sheet1!$M$39</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="1"/>
+                  <c:pt idx="0">
+                    <c:v>10.8548132041491</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Sheet1!$M$39</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="1"/>
+                  <c:pt idx="0">
+                    <c:v>10.8548132041491</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$L$37</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Mean</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$L$39</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>31.6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:gapWidth val="100"/>
+        <c:overlap val="0"/>
+        <c:axId val="27554433"/>
+        <c:axId val="18852535"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="27554433"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="18852535"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="18852535"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="80"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="27554433"/>
+        <c:crossesAt val="1"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>137520</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>81360</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>638640</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>16200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="0" name=""/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="4988880" y="893880"/>
+        <a:ext cx="2514600" cy="3348720"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:AMJ39"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.62"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="7.76"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="10.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="18.06"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="16.9"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="17.02"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="7" style="0" width="11.52"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="1" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AMJ1" s="0"/>
+    </row>
+    <row r="2" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="3" t="n">
+        <v>25600</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="2" t="n">
+        <v>23.4</v>
+      </c>
+      <c r="F2" s="0"/>
+      <c r="G2" s="0"/>
+      <c r="H2" s="0"/>
+      <c r="I2" s="0"/>
+      <c r="J2" s="0"/>
+      <c r="K2" s="0"/>
+      <c r="L2" s="0"/>
+      <c r="M2" s="0"/>
+      <c r="N2" s="0"/>
+      <c r="O2" s="0"/>
+      <c r="P2" s="0"/>
+      <c r="Q2" s="0"/>
+      <c r="R2" s="0"/>
+      <c r="S2" s="0"/>
+      <c r="T2" s="0"/>
+      <c r="U2" s="0"/>
+      <c r="V2" s="0"/>
+      <c r="W2" s="0"/>
+      <c r="X2" s="0"/>
+      <c r="Y2" s="0"/>
+      <c r="Z2" s="0"/>
+      <c r="AA2" s="0"/>
+      <c r="AB2" s="0"/>
+      <c r="AC2" s="0"/>
+      <c r="AD2" s="0"/>
+      <c r="AE2" s="0"/>
+      <c r="AF2" s="0"/>
+      <c r="AG2" s="0"/>
+      <c r="AH2" s="0"/>
+      <c r="AI2" s="0"/>
+      <c r="AJ2" s="0"/>
+      <c r="AK2" s="0"/>
+      <c r="AL2" s="0"/>
+      <c r="AM2" s="0"/>
+      <c r="AN2" s="0"/>
+      <c r="AO2" s="0"/>
+      <c r="AP2" s="0"/>
+      <c r="AQ2" s="0"/>
+      <c r="AR2" s="0"/>
+      <c r="AS2" s="0"/>
+      <c r="AT2" s="0"/>
+      <c r="AU2" s="0"/>
+      <c r="AV2" s="0"/>
+      <c r="AW2" s="0"/>
+      <c r="AX2" s="0"/>
+      <c r="AY2" s="0"/>
+      <c r="AZ2" s="0"/>
+      <c r="BA2" s="0"/>
+      <c r="BB2" s="0"/>
+      <c r="BC2" s="0"/>
+      <c r="BD2" s="0"/>
+      <c r="BE2" s="0"/>
+      <c r="BF2" s="0"/>
+      <c r="BG2" s="0"/>
+      <c r="BH2" s="0"/>
+      <c r="BI2" s="0"/>
+      <c r="BJ2" s="0"/>
+      <c r="BK2" s="0"/>
+      <c r="BL2" s="0"/>
+      <c r="BM2" s="0"/>
+      <c r="BN2" s="0"/>
+      <c r="BO2" s="0"/>
+      <c r="BP2" s="0"/>
+      <c r="BQ2" s="0"/>
+      <c r="BR2" s="0"/>
+      <c r="BS2" s="0"/>
+      <c r="BT2" s="0"/>
+      <c r="BU2" s="0"/>
+      <c r="BV2" s="0"/>
+      <c r="BW2" s="0"/>
+      <c r="BX2" s="0"/>
+      <c r="BY2" s="0"/>
+      <c r="BZ2" s="0"/>
+      <c r="CA2" s="0"/>
+      <c r="CB2" s="0"/>
+      <c r="CC2" s="0"/>
+      <c r="CD2" s="0"/>
+      <c r="CE2" s="0"/>
+      <c r="CF2" s="0"/>
+      <c r="CG2" s="0"/>
+      <c r="CH2" s="0"/>
+      <c r="CI2" s="0"/>
+      <c r="CJ2" s="0"/>
+      <c r="CK2" s="0"/>
+      <c r="CL2" s="0"/>
+      <c r="CM2" s="0"/>
+      <c r="CN2" s="0"/>
+      <c r="CO2" s="0"/>
+      <c r="CP2" s="0"/>
+      <c r="CQ2" s="0"/>
+      <c r="AMJ2" s="0"/>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="5" t="n">
+        <v>33093</v>
+      </c>
+      <c r="E3" s="0" t="n">
+        <v>12.4</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="0" t="n">
+        <v>34.7</v>
+      </c>
+    </row>
+    <row r="5" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="6" t="n">
+        <v>32.1</v>
+      </c>
+      <c r="F5" s="0"/>
+      <c r="G5" s="0"/>
+      <c r="H5" s="0"/>
+      <c r="I5" s="0"/>
+      <c r="J5" s="0"/>
+      <c r="K5" s="0"/>
+      <c r="L5" s="0"/>
+      <c r="M5" s="0"/>
+      <c r="N5" s="0"/>
+      <c r="O5" s="0"/>
+      <c r="P5" s="0"/>
+      <c r="Q5" s="0"/>
+      <c r="R5" s="0"/>
+      <c r="S5" s="0"/>
+      <c r="T5" s="0"/>
+      <c r="U5" s="0"/>
+      <c r="V5" s="0"/>
+      <c r="W5" s="0"/>
+      <c r="X5" s="0"/>
+      <c r="Y5" s="0"/>
+      <c r="Z5" s="0"/>
+      <c r="AA5" s="0"/>
+      <c r="AB5" s="0"/>
+      <c r="AC5" s="0"/>
+      <c r="AD5" s="0"/>
+      <c r="AE5" s="0"/>
+      <c r="AF5" s="0"/>
+      <c r="AG5" s="0"/>
+      <c r="AH5" s="0"/>
+      <c r="AI5" s="0"/>
+      <c r="AJ5" s="0"/>
+      <c r="AK5" s="0"/>
+      <c r="AL5" s="0"/>
+      <c r="AM5" s="0"/>
+      <c r="AN5" s="0"/>
+      <c r="AO5" s="0"/>
+      <c r="AP5" s="0"/>
+      <c r="AQ5" s="0"/>
+      <c r="AR5" s="0"/>
+      <c r="AS5" s="0"/>
+      <c r="AT5" s="0"/>
+      <c r="AU5" s="0"/>
+      <c r="AV5" s="0"/>
+      <c r="AW5" s="0"/>
+      <c r="AX5" s="0"/>
+      <c r="AY5" s="0"/>
+      <c r="AZ5" s="0"/>
+      <c r="BA5" s="0"/>
+      <c r="BB5" s="0"/>
+      <c r="BC5" s="0"/>
+      <c r="BD5" s="0"/>
+      <c r="BE5" s="0"/>
+      <c r="BF5" s="0"/>
+      <c r="BG5" s="0"/>
+      <c r="BH5" s="0"/>
+      <c r="BI5" s="0"/>
+      <c r="BJ5" s="0"/>
+      <c r="BK5" s="0"/>
+      <c r="BL5" s="0"/>
+      <c r="BM5" s="0"/>
+      <c r="BN5" s="0"/>
+      <c r="BO5" s="0"/>
+      <c r="BP5" s="0"/>
+      <c r="BQ5" s="0"/>
+      <c r="BR5" s="0"/>
+      <c r="BS5" s="0"/>
+      <c r="BT5" s="0"/>
+      <c r="BU5" s="0"/>
+      <c r="BV5" s="0"/>
+      <c r="BW5" s="0"/>
+      <c r="BX5" s="0"/>
+      <c r="BY5" s="0"/>
+      <c r="BZ5" s="0"/>
+      <c r="CA5" s="0"/>
+      <c r="CB5" s="0"/>
+      <c r="CC5" s="0"/>
+      <c r="CD5" s="0"/>
+      <c r="CE5" s="0"/>
+      <c r="CF5" s="0"/>
+      <c r="CG5" s="0"/>
+      <c r="CH5" s="0"/>
+      <c r="CI5" s="0"/>
+      <c r="CJ5" s="0"/>
+      <c r="CK5" s="0"/>
+      <c r="CL5" s="0"/>
+      <c r="CM5" s="0"/>
+      <c r="CN5" s="0"/>
+      <c r="CO5" s="0"/>
+      <c r="CP5" s="0"/>
+      <c r="CQ5" s="0"/>
+      <c r="AMJ5" s="0"/>
+    </row>
+    <row r="6" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="7" t="n">
+        <v>33364</v>
+      </c>
+      <c r="E6" s="6" t="n">
+        <v>76.9</v>
+      </c>
+      <c r="F6" s="0"/>
+      <c r="G6" s="0"/>
+      <c r="H6" s="0"/>
+      <c r="I6" s="0"/>
+      <c r="J6" s="0"/>
+      <c r="K6" s="0"/>
+      <c r="L6" s="0"/>
+      <c r="M6" s="0"/>
+      <c r="N6" s="0"/>
+      <c r="O6" s="0"/>
+      <c r="P6" s="0"/>
+      <c r="Q6" s="0"/>
+      <c r="R6" s="0"/>
+      <c r="S6" s="0"/>
+      <c r="T6" s="0"/>
+      <c r="U6" s="0"/>
+      <c r="V6" s="0"/>
+      <c r="W6" s="0"/>
+      <c r="X6" s="0"/>
+      <c r="Y6" s="0"/>
+      <c r="Z6" s="0"/>
+      <c r="AA6" s="0"/>
+      <c r="AB6" s="0"/>
+      <c r="AC6" s="0"/>
+      <c r="AD6" s="0"/>
+      <c r="AE6" s="0"/>
+      <c r="AF6" s="0"/>
+      <c r="AG6" s="0"/>
+      <c r="AH6" s="0"/>
+      <c r="AI6" s="0"/>
+      <c r="AJ6" s="0"/>
+      <c r="AK6" s="0"/>
+      <c r="AL6" s="0"/>
+      <c r="AM6" s="0"/>
+      <c r="AN6" s="0"/>
+      <c r="AO6" s="0"/>
+      <c r="AP6" s="0"/>
+      <c r="AQ6" s="0"/>
+      <c r="AR6" s="0"/>
+      <c r="AS6" s="0"/>
+      <c r="AT6" s="0"/>
+      <c r="AU6" s="0"/>
+      <c r="AV6" s="0"/>
+      <c r="AW6" s="0"/>
+      <c r="AX6" s="0"/>
+      <c r="AY6" s="0"/>
+      <c r="AZ6" s="0"/>
+      <c r="BA6" s="0"/>
+      <c r="BB6" s="0"/>
+      <c r="BC6" s="0"/>
+      <c r="BD6" s="0"/>
+      <c r="BE6" s="0"/>
+      <c r="BF6" s="0"/>
+      <c r="BG6" s="0"/>
+      <c r="BH6" s="0"/>
+      <c r="BI6" s="0"/>
+      <c r="BJ6" s="0"/>
+      <c r="BK6" s="0"/>
+      <c r="BL6" s="0"/>
+      <c r="BM6" s="0"/>
+      <c r="BN6" s="0"/>
+      <c r="BO6" s="0"/>
+      <c r="BP6" s="0"/>
+      <c r="BQ6" s="0"/>
+      <c r="BR6" s="0"/>
+      <c r="BS6" s="0"/>
+      <c r="BT6" s="0"/>
+      <c r="BU6" s="0"/>
+      <c r="BV6" s="0"/>
+      <c r="BW6" s="0"/>
+      <c r="BX6" s="0"/>
+      <c r="BY6" s="0"/>
+      <c r="BZ6" s="0"/>
+      <c r="CA6" s="0"/>
+      <c r="CB6" s="0"/>
+      <c r="CC6" s="0"/>
+      <c r="CD6" s="0"/>
+      <c r="CE6" s="0"/>
+      <c r="CF6" s="0"/>
+      <c r="CG6" s="0"/>
+      <c r="CH6" s="0"/>
+      <c r="CI6" s="0"/>
+      <c r="CJ6" s="0"/>
+      <c r="CK6" s="0"/>
+      <c r="CL6" s="0"/>
+      <c r="CM6" s="0"/>
+      <c r="CN6" s="0"/>
+      <c r="CO6" s="0"/>
+      <c r="CP6" s="0"/>
+      <c r="CQ6" s="0"/>
+      <c r="AMJ6" s="0"/>
+    </row>
+    <row r="7" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="6" t="n">
+        <v>98.8</v>
+      </c>
+      <c r="F7" s="0"/>
+      <c r="G7" s="0"/>
+      <c r="H7" s="0"/>
+      <c r="I7" s="0"/>
+      <c r="J7" s="0"/>
+      <c r="K7" s="0"/>
+      <c r="L7" s="0"/>
+      <c r="M7" s="0"/>
+      <c r="N7" s="0"/>
+      <c r="O7" s="0"/>
+      <c r="P7" s="0"/>
+      <c r="Q7" s="0"/>
+      <c r="R7" s="0"/>
+      <c r="S7" s="0"/>
+      <c r="T7" s="0"/>
+      <c r="U7" s="0"/>
+      <c r="V7" s="0"/>
+      <c r="W7" s="0"/>
+      <c r="X7" s="0"/>
+      <c r="Y7" s="0"/>
+      <c r="Z7" s="0"/>
+      <c r="AA7" s="0"/>
+      <c r="AB7" s="0"/>
+      <c r="AC7" s="0"/>
+      <c r="AD7" s="0"/>
+      <c r="AE7" s="0"/>
+      <c r="AF7" s="0"/>
+      <c r="AG7" s="0"/>
+      <c r="AH7" s="0"/>
+      <c r="AI7" s="0"/>
+      <c r="AJ7" s="0"/>
+      <c r="AK7" s="0"/>
+      <c r="AL7" s="0"/>
+      <c r="AM7" s="0"/>
+      <c r="AN7" s="0"/>
+      <c r="AO7" s="0"/>
+      <c r="AP7" s="0"/>
+      <c r="AQ7" s="0"/>
+      <c r="AR7" s="0"/>
+      <c r="AS7" s="0"/>
+      <c r="AT7" s="0"/>
+      <c r="AU7" s="0"/>
+      <c r="AV7" s="0"/>
+      <c r="AW7" s="0"/>
+      <c r="AX7" s="0"/>
+      <c r="AY7" s="0"/>
+      <c r="AZ7" s="0"/>
+      <c r="BA7" s="0"/>
+      <c r="BB7" s="0"/>
+      <c r="BC7" s="0"/>
+      <c r="BD7" s="0"/>
+      <c r="BE7" s="0"/>
+      <c r="BF7" s="0"/>
+      <c r="BG7" s="0"/>
+      <c r="BH7" s="0"/>
+      <c r="BI7" s="0"/>
+      <c r="BJ7" s="0"/>
+      <c r="BK7" s="0"/>
+      <c r="BL7" s="0"/>
+      <c r="BM7" s="0"/>
+      <c r="BN7" s="0"/>
+      <c r="BO7" s="0"/>
+      <c r="BP7" s="0"/>
+      <c r="BQ7" s="0"/>
+      <c r="BR7" s="0"/>
+      <c r="BS7" s="0"/>
+      <c r="BT7" s="0"/>
+      <c r="BU7" s="0"/>
+      <c r="BV7" s="0"/>
+      <c r="BW7" s="0"/>
+      <c r="BX7" s="0"/>
+      <c r="BY7" s="0"/>
+      <c r="BZ7" s="0"/>
+      <c r="CA7" s="0"/>
+      <c r="CB7" s="0"/>
+      <c r="CC7" s="0"/>
+      <c r="CD7" s="0"/>
+      <c r="CE7" s="0"/>
+      <c r="CF7" s="0"/>
+      <c r="CG7" s="0"/>
+      <c r="CH7" s="0"/>
+      <c r="CI7" s="0"/>
+      <c r="CJ7" s="0"/>
+      <c r="CK7" s="0"/>
+      <c r="CL7" s="0"/>
+      <c r="CM7" s="0"/>
+      <c r="CN7" s="0"/>
+      <c r="CO7" s="0"/>
+      <c r="CP7" s="0"/>
+      <c r="CQ7" s="0"/>
+      <c r="AMJ7" s="0"/>
+    </row>
+    <row r="8" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="9" t="n">
+        <v>36254</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" s="8" t="n">
+        <v>101.2</v>
+      </c>
+      <c r="F8" s="0"/>
+      <c r="G8" s="0"/>
+      <c r="H8" s="0"/>
+      <c r="I8" s="0"/>
+      <c r="J8" s="0"/>
+      <c r="K8" s="0"/>
+      <c r="L8" s="0"/>
+      <c r="M8" s="0"/>
+      <c r="N8" s="0"/>
+      <c r="O8" s="0"/>
+      <c r="P8" s="0"/>
+      <c r="Q8" s="0"/>
+      <c r="R8" s="0"/>
+      <c r="S8" s="0"/>
+      <c r="T8" s="0"/>
+      <c r="U8" s="0"/>
+      <c r="V8" s="0"/>
+      <c r="W8" s="0"/>
+      <c r="X8" s="0"/>
+      <c r="Y8" s="0"/>
+      <c r="Z8" s="0"/>
+      <c r="AA8" s="0"/>
+      <c r="AB8" s="0"/>
+      <c r="AC8" s="0"/>
+      <c r="AD8" s="0"/>
+      <c r="AE8" s="0"/>
+      <c r="AF8" s="0"/>
+      <c r="AG8" s="0"/>
+      <c r="AH8" s="0"/>
+      <c r="AI8" s="0"/>
+      <c r="AJ8" s="0"/>
+      <c r="AK8" s="0"/>
+      <c r="AL8" s="0"/>
+      <c r="AM8" s="0"/>
+      <c r="AN8" s="0"/>
+      <c r="AO8" s="0"/>
+      <c r="AP8" s="0"/>
+      <c r="AQ8" s="0"/>
+      <c r="AR8" s="0"/>
+      <c r="AS8" s="0"/>
+      <c r="AT8" s="0"/>
+      <c r="AU8" s="0"/>
+      <c r="AV8" s="0"/>
+      <c r="AW8" s="0"/>
+      <c r="AX8" s="0"/>
+      <c r="AY8" s="0"/>
+      <c r="AZ8" s="0"/>
+      <c r="BA8" s="0"/>
+      <c r="BB8" s="0"/>
+      <c r="BC8" s="0"/>
+      <c r="BD8" s="0"/>
+      <c r="BE8" s="0"/>
+      <c r="BF8" s="0"/>
+      <c r="BG8" s="0"/>
+      <c r="BH8" s="0"/>
+      <c r="BI8" s="0"/>
+      <c r="BJ8" s="0"/>
+      <c r="BK8" s="0"/>
+      <c r="BL8" s="0"/>
+      <c r="BM8" s="0"/>
+      <c r="BN8" s="0"/>
+      <c r="BO8" s="0"/>
+      <c r="BP8" s="0"/>
+      <c r="BQ8" s="0"/>
+      <c r="BR8" s="0"/>
+      <c r="BS8" s="0"/>
+      <c r="BT8" s="0"/>
+      <c r="BU8" s="0"/>
+      <c r="BV8" s="0"/>
+      <c r="BW8" s="0"/>
+      <c r="BX8" s="0"/>
+      <c r="BY8" s="0"/>
+      <c r="BZ8" s="0"/>
+      <c r="CA8" s="0"/>
+      <c r="CB8" s="0"/>
+      <c r="CC8" s="0"/>
+      <c r="CD8" s="0"/>
+      <c r="CE8" s="0"/>
+      <c r="CF8" s="0"/>
+      <c r="CG8" s="0"/>
+      <c r="CH8" s="0"/>
+      <c r="CI8" s="0"/>
+      <c r="CJ8" s="0"/>
+      <c r="CK8" s="0"/>
+      <c r="CL8" s="0"/>
+      <c r="CM8" s="0"/>
+      <c r="CN8" s="0"/>
+      <c r="CO8" s="0"/>
+      <c r="CP8" s="0"/>
+      <c r="CQ8" s="0"/>
+      <c r="AMJ8" s="0"/>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>27984</v>
+      </c>
+      <c r="E9" s="0" t="n">
+        <v>25.5</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="5" t="n">
+        <v>29467</v>
+      </c>
+      <c r="E10" s="0" t="n">
+        <v>38.8</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>29802</v>
+      </c>
+      <c r="E11" s="0" t="n">
+        <v>39.1</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12" s="0" t="n">
+        <v>48.7</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13" s="0" t="n">
+        <v>43.2</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>25600</v>
+      </c>
+      <c r="E14" s="0" t="n">
+        <v>23.4</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>33093</v>
+      </c>
+      <c r="E15" s="0" t="n">
+        <v>20.1</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E16" s="0" t="n">
+        <v>34.7</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="C17" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="E17" s="0" t="n">
+        <v>43.4</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="C18" s="5" t="n">
+        <v>33364</v>
+      </c>
+      <c r="E18" s="0" t="n">
+        <v>21.9</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="B19" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="C19" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="E19" s="0" t="n">
+        <v>43.8</v>
+      </c>
+    </row>
+    <row r="20" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C20" s="7" t="n">
+        <v>36254</v>
+      </c>
+      <c r="E20" s="6" t="n">
+        <v>43.3</v>
+      </c>
+      <c r="F20" s="0"/>
+      <c r="G20" s="0"/>
+      <c r="H20" s="0"/>
+      <c r="I20" s="0"/>
+      <c r="J20" s="0"/>
+      <c r="K20" s="0"/>
+      <c r="L20" s="0"/>
+      <c r="M20" s="0"/>
+      <c r="N20" s="0"/>
+      <c r="O20" s="0"/>
+      <c r="P20" s="0"/>
+      <c r="Q20" s="0"/>
+      <c r="R20" s="0"/>
+      <c r="S20" s="0"/>
+      <c r="T20" s="0"/>
+      <c r="U20" s="0"/>
+      <c r="V20" s="0"/>
+      <c r="W20" s="0"/>
+      <c r="X20" s="0"/>
+      <c r="Y20" s="0"/>
+      <c r="Z20" s="0"/>
+      <c r="AA20" s="0"/>
+      <c r="AB20" s="0"/>
+      <c r="AC20" s="0"/>
+      <c r="AD20" s="0"/>
+      <c r="AE20" s="0"/>
+      <c r="AF20" s="0"/>
+      <c r="AG20" s="0"/>
+      <c r="AH20" s="0"/>
+      <c r="AI20" s="0"/>
+      <c r="AJ20" s="0"/>
+      <c r="AK20" s="0"/>
+      <c r="AL20" s="0"/>
+      <c r="AM20" s="0"/>
+      <c r="AN20" s="0"/>
+      <c r="AO20" s="0"/>
+      <c r="AP20" s="0"/>
+      <c r="AQ20" s="0"/>
+      <c r="AR20" s="0"/>
+      <c r="AS20" s="0"/>
+      <c r="AT20" s="0"/>
+      <c r="AU20" s="0"/>
+      <c r="AV20" s="0"/>
+      <c r="AW20" s="0"/>
+      <c r="AX20" s="0"/>
+      <c r="AY20" s="0"/>
+      <c r="AZ20" s="0"/>
+      <c r="BA20" s="0"/>
+      <c r="BB20" s="0"/>
+      <c r="BC20" s="0"/>
+      <c r="BD20" s="0"/>
+      <c r="BE20" s="0"/>
+      <c r="BF20" s="0"/>
+      <c r="BG20" s="0"/>
+      <c r="BH20" s="0"/>
+      <c r="BI20" s="0"/>
+      <c r="BJ20" s="0"/>
+      <c r="BK20" s="0"/>
+      <c r="BL20" s="0"/>
+      <c r="BM20" s="0"/>
+      <c r="BN20" s="0"/>
+      <c r="BO20" s="0"/>
+      <c r="BP20" s="0"/>
+      <c r="BQ20" s="0"/>
+      <c r="BR20" s="0"/>
+      <c r="BS20" s="0"/>
+      <c r="BT20" s="0"/>
+      <c r="BU20" s="0"/>
+      <c r="BV20" s="0"/>
+      <c r="BW20" s="0"/>
+      <c r="BX20" s="0"/>
+      <c r="BY20" s="0"/>
+      <c r="BZ20" s="0"/>
+      <c r="CA20" s="0"/>
+      <c r="CB20" s="0"/>
+      <c r="CC20" s="0"/>
+      <c r="CD20" s="0"/>
+      <c r="CE20" s="0"/>
+      <c r="CF20" s="0"/>
+      <c r="CG20" s="0"/>
+      <c r="CH20" s="0"/>
+      <c r="CI20" s="0"/>
+      <c r="CJ20" s="0"/>
+      <c r="CK20" s="0"/>
+      <c r="CL20" s="0"/>
+      <c r="CM20" s="0"/>
+      <c r="CN20" s="0"/>
+      <c r="CO20" s="0"/>
+      <c r="CP20" s="0"/>
+      <c r="CQ20" s="0"/>
+      <c r="AMJ20" s="0"/>
+    </row>
+    <row r="21" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C21" s="7" t="n">
+        <v>27984</v>
+      </c>
+      <c r="E21" s="6" t="n">
+        <v>25.2</v>
+      </c>
+      <c r="F21" s="0"/>
+      <c r="G21" s="0"/>
+      <c r="H21" s="0"/>
+      <c r="I21" s="0"/>
+      <c r="J21" s="0"/>
+      <c r="K21" s="0"/>
+      <c r="L21" s="0"/>
+      <c r="M21" s="0"/>
+      <c r="N21" s="0"/>
+      <c r="O21" s="0"/>
+      <c r="P21" s="0"/>
+      <c r="Q21" s="0"/>
+      <c r="R21" s="0"/>
+      <c r="S21" s="0"/>
+      <c r="T21" s="0"/>
+      <c r="U21" s="0"/>
+      <c r="V21" s="0"/>
+      <c r="W21" s="0"/>
+      <c r="X21" s="0"/>
+      <c r="Y21" s="0"/>
+      <c r="Z21" s="0"/>
+      <c r="AA21" s="0"/>
+      <c r="AB21" s="0"/>
+      <c r="AC21" s="0"/>
+      <c r="AD21" s="0"/>
+      <c r="AE21" s="0"/>
+      <c r="AF21" s="0"/>
+      <c r="AG21" s="0"/>
+      <c r="AH21" s="0"/>
+      <c r="AI21" s="0"/>
+      <c r="AJ21" s="0"/>
+      <c r="AK21" s="0"/>
+      <c r="AL21" s="0"/>
+      <c r="AM21" s="0"/>
+      <c r="AN21" s="0"/>
+      <c r="AO21" s="0"/>
+      <c r="AP21" s="0"/>
+      <c r="AQ21" s="0"/>
+      <c r="AR21" s="0"/>
+      <c r="AS21" s="0"/>
+      <c r="AT21" s="0"/>
+      <c r="AU21" s="0"/>
+      <c r="AV21" s="0"/>
+      <c r="AW21" s="0"/>
+      <c r="AX21" s="0"/>
+      <c r="AY21" s="0"/>
+      <c r="AZ21" s="0"/>
+      <c r="BA21" s="0"/>
+      <c r="BB21" s="0"/>
+      <c r="BC21" s="0"/>
+      <c r="BD21" s="0"/>
+      <c r="BE21" s="0"/>
+      <c r="BF21" s="0"/>
+      <c r="BG21" s="0"/>
+      <c r="BH21" s="0"/>
+      <c r="BI21" s="0"/>
+      <c r="BJ21" s="0"/>
+      <c r="BK21" s="0"/>
+      <c r="BL21" s="0"/>
+      <c r="BM21" s="0"/>
+      <c r="BN21" s="0"/>
+      <c r="BO21" s="0"/>
+      <c r="BP21" s="0"/>
+      <c r="BQ21" s="0"/>
+      <c r="BR21" s="0"/>
+      <c r="BS21" s="0"/>
+      <c r="BT21" s="0"/>
+      <c r="BU21" s="0"/>
+      <c r="BV21" s="0"/>
+      <c r="BW21" s="0"/>
+      <c r="BX21" s="0"/>
+      <c r="BY21" s="0"/>
+      <c r="BZ21" s="0"/>
+      <c r="CA21" s="0"/>
+      <c r="CB21" s="0"/>
+      <c r="CC21" s="0"/>
+      <c r="CD21" s="0"/>
+      <c r="CE21" s="0"/>
+      <c r="CF21" s="0"/>
+      <c r="CG21" s="0"/>
+      <c r="CH21" s="0"/>
+      <c r="CI21" s="0"/>
+      <c r="CJ21" s="0"/>
+      <c r="CK21" s="0"/>
+      <c r="CL21" s="0"/>
+      <c r="CM21" s="0"/>
+      <c r="CN21" s="0"/>
+      <c r="CO21" s="0"/>
+      <c r="CP21" s="0"/>
+      <c r="CQ21" s="0"/>
+      <c r="AMJ21" s="0"/>
+    </row>
+    <row r="22" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C22" s="7" t="n">
+        <v>29467</v>
+      </c>
+      <c r="E22" s="6" t="n">
+        <v>23.2</v>
+      </c>
+      <c r="F22" s="0"/>
+      <c r="G22" s="0"/>
+      <c r="H22" s="0"/>
+      <c r="I22" s="0"/>
+      <c r="J22" s="0"/>
+      <c r="K22" s="0"/>
+      <c r="L22" s="0"/>
+      <c r="M22" s="0"/>
+      <c r="N22" s="0"/>
+      <c r="O22" s="0"/>
+      <c r="P22" s="0"/>
+      <c r="Q22" s="0"/>
+      <c r="R22" s="0"/>
+      <c r="S22" s="0"/>
+      <c r="T22" s="0"/>
+      <c r="U22" s="0"/>
+      <c r="V22" s="0"/>
+      <c r="W22" s="0"/>
+      <c r="X22" s="0"/>
+      <c r="Y22" s="0"/>
+      <c r="Z22" s="0"/>
+      <c r="AA22" s="0"/>
+      <c r="AB22" s="0"/>
+      <c r="AC22" s="0"/>
+      <c r="AD22" s="0"/>
+      <c r="AE22" s="0"/>
+      <c r="AF22" s="0"/>
+      <c r="AG22" s="0"/>
+      <c r="AH22" s="0"/>
+      <c r="AI22" s="0"/>
+      <c r="AJ22" s="0"/>
+      <c r="AK22" s="0"/>
+      <c r="AL22" s="0"/>
+      <c r="AM22" s="0"/>
+      <c r="AN22" s="0"/>
+      <c r="AO22" s="0"/>
+      <c r="AP22" s="0"/>
+      <c r="AQ22" s="0"/>
+      <c r="AR22" s="0"/>
+      <c r="AS22" s="0"/>
+      <c r="AT22" s="0"/>
+      <c r="AU22" s="0"/>
+      <c r="AV22" s="0"/>
+      <c r="AW22" s="0"/>
+      <c r="AX22" s="0"/>
+      <c r="AY22" s="0"/>
+      <c r="AZ22" s="0"/>
+      <c r="BA22" s="0"/>
+      <c r="BB22" s="0"/>
+      <c r="BC22" s="0"/>
+      <c r="BD22" s="0"/>
+      <c r="BE22" s="0"/>
+      <c r="BF22" s="0"/>
+      <c r="BG22" s="0"/>
+      <c r="BH22" s="0"/>
+      <c r="BI22" s="0"/>
+      <c r="BJ22" s="0"/>
+      <c r="BK22" s="0"/>
+      <c r="BL22" s="0"/>
+      <c r="BM22" s="0"/>
+      <c r="BN22" s="0"/>
+      <c r="BO22" s="0"/>
+      <c r="BP22" s="0"/>
+      <c r="BQ22" s="0"/>
+      <c r="BR22" s="0"/>
+      <c r="BS22" s="0"/>
+      <c r="BT22" s="0"/>
+      <c r="BU22" s="0"/>
+      <c r="BV22" s="0"/>
+      <c r="BW22" s="0"/>
+      <c r="BX22" s="0"/>
+      <c r="BY22" s="0"/>
+      <c r="BZ22" s="0"/>
+      <c r="CA22" s="0"/>
+      <c r="CB22" s="0"/>
+      <c r="CC22" s="0"/>
+      <c r="CD22" s="0"/>
+      <c r="CE22" s="0"/>
+      <c r="CF22" s="0"/>
+      <c r="CG22" s="0"/>
+      <c r="CH22" s="0"/>
+      <c r="CI22" s="0"/>
+      <c r="CJ22" s="0"/>
+      <c r="CK22" s="0"/>
+      <c r="CL22" s="0"/>
+      <c r="CM22" s="0"/>
+      <c r="CN22" s="0"/>
+      <c r="CO22" s="0"/>
+      <c r="CP22" s="0"/>
+      <c r="CQ22" s="0"/>
+      <c r="AMJ22" s="0"/>
+    </row>
+    <row r="23" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C23" s="7" t="n">
+        <v>29802</v>
+      </c>
+      <c r="E23" s="6" t="n">
+        <v>39.6</v>
+      </c>
+      <c r="F23" s="0"/>
+      <c r="G23" s="0"/>
+      <c r="H23" s="0"/>
+      <c r="I23" s="0"/>
+      <c r="J23" s="0"/>
+      <c r="K23" s="0"/>
+      <c r="L23" s="0"/>
+      <c r="M23" s="0"/>
+      <c r="N23" s="0"/>
+      <c r="O23" s="0"/>
+      <c r="P23" s="0"/>
+      <c r="Q23" s="0"/>
+      <c r="R23" s="0"/>
+      <c r="S23" s="0"/>
+      <c r="T23" s="0"/>
+      <c r="U23" s="0"/>
+      <c r="V23" s="0"/>
+      <c r="W23" s="0"/>
+      <c r="X23" s="0"/>
+      <c r="Y23" s="0"/>
+      <c r="Z23" s="0"/>
+      <c r="AA23" s="0"/>
+      <c r="AB23" s="0"/>
+      <c r="AC23" s="0"/>
+      <c r="AD23" s="0"/>
+      <c r="AE23" s="0"/>
+      <c r="AF23" s="0"/>
+      <c r="AG23" s="0"/>
+      <c r="AH23" s="0"/>
+      <c r="AI23" s="0"/>
+      <c r="AJ23" s="0"/>
+      <c r="AK23" s="0"/>
+      <c r="AL23" s="0"/>
+      <c r="AM23" s="0"/>
+      <c r="AN23" s="0"/>
+      <c r="AO23" s="0"/>
+      <c r="AP23" s="0"/>
+      <c r="AQ23" s="0"/>
+      <c r="AR23" s="0"/>
+      <c r="AS23" s="0"/>
+      <c r="AT23" s="0"/>
+      <c r="AU23" s="0"/>
+      <c r="AV23" s="0"/>
+      <c r="AW23" s="0"/>
+      <c r="AX23" s="0"/>
+      <c r="AY23" s="0"/>
+      <c r="AZ23" s="0"/>
+      <c r="BA23" s="0"/>
+      <c r="BB23" s="0"/>
+      <c r="BC23" s="0"/>
+      <c r="BD23" s="0"/>
+      <c r="BE23" s="0"/>
+      <c r="BF23" s="0"/>
+      <c r="BG23" s="0"/>
+      <c r="BH23" s="0"/>
+      <c r="BI23" s="0"/>
+      <c r="BJ23" s="0"/>
+      <c r="BK23" s="0"/>
+      <c r="BL23" s="0"/>
+      <c r="BM23" s="0"/>
+      <c r="BN23" s="0"/>
+      <c r="BO23" s="0"/>
+      <c r="BP23" s="0"/>
+      <c r="BQ23" s="0"/>
+      <c r="BR23" s="0"/>
+      <c r="BS23" s="0"/>
+      <c r="BT23" s="0"/>
+      <c r="BU23" s="0"/>
+      <c r="BV23" s="0"/>
+      <c r="BW23" s="0"/>
+      <c r="BX23" s="0"/>
+      <c r="BY23" s="0"/>
+      <c r="BZ23" s="0"/>
+      <c r="CA23" s="0"/>
+      <c r="CB23" s="0"/>
+      <c r="CC23" s="0"/>
+      <c r="CD23" s="0"/>
+      <c r="CE23" s="0"/>
+      <c r="CF23" s="0"/>
+      <c r="CG23" s="0"/>
+      <c r="CH23" s="0"/>
+      <c r="CI23" s="0"/>
+      <c r="CJ23" s="0"/>
+      <c r="CK23" s="0"/>
+      <c r="CL23" s="0"/>
+      <c r="CM23" s="0"/>
+      <c r="CN23" s="0"/>
+      <c r="CO23" s="0"/>
+      <c r="CP23" s="0"/>
+      <c r="CQ23" s="0"/>
+      <c r="AMJ23" s="0"/>
+    </row>
+    <row r="24" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E24" s="6" t="n">
+        <v>48.3</v>
+      </c>
+      <c r="F24" s="0"/>
+      <c r="G24" s="0"/>
+      <c r="H24" s="0"/>
+      <c r="I24" s="0"/>
+      <c r="J24" s="0"/>
+      <c r="K24" s="0"/>
+      <c r="L24" s="0"/>
+      <c r="M24" s="0"/>
+      <c r="N24" s="0"/>
+      <c r="O24" s="0"/>
+      <c r="P24" s="0"/>
+      <c r="Q24" s="0"/>
+      <c r="R24" s="0"/>
+      <c r="S24" s="0"/>
+      <c r="T24" s="0"/>
+      <c r="U24" s="0"/>
+      <c r="V24" s="0"/>
+      <c r="W24" s="0"/>
+      <c r="X24" s="0"/>
+      <c r="Y24" s="0"/>
+      <c r="Z24" s="0"/>
+      <c r="AA24" s="0"/>
+      <c r="AB24" s="0"/>
+      <c r="AC24" s="0"/>
+      <c r="AD24" s="0"/>
+      <c r="AE24" s="0"/>
+      <c r="AF24" s="0"/>
+      <c r="AG24" s="0"/>
+      <c r="AH24" s="0"/>
+      <c r="AI24" s="0"/>
+      <c r="AJ24" s="0"/>
+      <c r="AK24" s="0"/>
+      <c r="AL24" s="0"/>
+      <c r="AM24" s="0"/>
+      <c r="AN24" s="0"/>
+      <c r="AO24" s="0"/>
+      <c r="AP24" s="0"/>
+      <c r="AQ24" s="0"/>
+      <c r="AR24" s="0"/>
+      <c r="AS24" s="0"/>
+      <c r="AT24" s="0"/>
+      <c r="AU24" s="0"/>
+      <c r="AV24" s="0"/>
+      <c r="AW24" s="0"/>
+      <c r="AX24" s="0"/>
+      <c r="AY24" s="0"/>
+      <c r="AZ24" s="0"/>
+      <c r="BA24" s="0"/>
+      <c r="BB24" s="0"/>
+      <c r="BC24" s="0"/>
+      <c r="BD24" s="0"/>
+      <c r="BE24" s="0"/>
+      <c r="BF24" s="0"/>
+      <c r="BG24" s="0"/>
+      <c r="BH24" s="0"/>
+      <c r="BI24" s="0"/>
+      <c r="BJ24" s="0"/>
+      <c r="BK24" s="0"/>
+      <c r="BL24" s="0"/>
+      <c r="BM24" s="0"/>
+      <c r="BN24" s="0"/>
+      <c r="BO24" s="0"/>
+      <c r="BP24" s="0"/>
+      <c r="BQ24" s="0"/>
+      <c r="BR24" s="0"/>
+      <c r="BS24" s="0"/>
+      <c r="BT24" s="0"/>
+      <c r="BU24" s="0"/>
+      <c r="BV24" s="0"/>
+      <c r="BW24" s="0"/>
+      <c r="BX24" s="0"/>
+      <c r="BY24" s="0"/>
+      <c r="BZ24" s="0"/>
+      <c r="CA24" s="0"/>
+      <c r="CB24" s="0"/>
+      <c r="CC24" s="0"/>
+      <c r="CD24" s="0"/>
+      <c r="CE24" s="0"/>
+      <c r="CF24" s="0"/>
+      <c r="CG24" s="0"/>
+      <c r="CH24" s="0"/>
+      <c r="CI24" s="0"/>
+      <c r="CJ24" s="0"/>
+      <c r="CK24" s="0"/>
+      <c r="CL24" s="0"/>
+      <c r="CM24" s="0"/>
+      <c r="CN24" s="0"/>
+      <c r="CO24" s="0"/>
+      <c r="CP24" s="0"/>
+      <c r="CQ24" s="0"/>
+      <c r="AMJ24" s="0"/>
+    </row>
+    <row r="25" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E25" s="6" t="n">
+        <v>21.7</v>
+      </c>
+      <c r="F25" s="0"/>
+      <c r="G25" s="0"/>
+      <c r="H25" s="0"/>
+      <c r="I25" s="0"/>
+      <c r="J25" s="0"/>
+      <c r="K25" s="0"/>
+      <c r="L25" s="0"/>
+      <c r="M25" s="0"/>
+      <c r="N25" s="0"/>
+      <c r="O25" s="0"/>
+      <c r="P25" s="0"/>
+      <c r="Q25" s="0"/>
+      <c r="R25" s="0"/>
+      <c r="S25" s="0"/>
+      <c r="T25" s="0"/>
+      <c r="U25" s="0"/>
+      <c r="V25" s="0"/>
+      <c r="W25" s="0"/>
+      <c r="X25" s="0"/>
+      <c r="Y25" s="0"/>
+      <c r="Z25" s="0"/>
+      <c r="AA25" s="0"/>
+      <c r="AB25" s="0"/>
+      <c r="AC25" s="0"/>
+      <c r="AD25" s="0"/>
+      <c r="AE25" s="0"/>
+      <c r="AF25" s="0"/>
+      <c r="AG25" s="0"/>
+      <c r="AH25" s="0"/>
+      <c r="AI25" s="0"/>
+      <c r="AJ25" s="0"/>
+      <c r="AK25" s="0"/>
+      <c r="AL25" s="0"/>
+      <c r="AM25" s="0"/>
+      <c r="AN25" s="0"/>
+      <c r="AO25" s="0"/>
+      <c r="AP25" s="0"/>
+      <c r="AQ25" s="0"/>
+      <c r="AR25" s="0"/>
+      <c r="AS25" s="0"/>
+      <c r="AT25" s="0"/>
+      <c r="AU25" s="0"/>
+      <c r="AV25" s="0"/>
+      <c r="AW25" s="0"/>
+      <c r="AX25" s="0"/>
+      <c r="AY25" s="0"/>
+      <c r="AZ25" s="0"/>
+      <c r="BA25" s="0"/>
+      <c r="BB25" s="0"/>
+      <c r="BC25" s="0"/>
+      <c r="BD25" s="0"/>
+      <c r="BE25" s="0"/>
+      <c r="BF25" s="0"/>
+      <c r="BG25" s="0"/>
+      <c r="BH25" s="0"/>
+      <c r="BI25" s="0"/>
+      <c r="BJ25" s="0"/>
+      <c r="BK25" s="0"/>
+      <c r="BL25" s="0"/>
+      <c r="BM25" s="0"/>
+      <c r="BN25" s="0"/>
+      <c r="BO25" s="0"/>
+      <c r="BP25" s="0"/>
+      <c r="BQ25" s="0"/>
+      <c r="BR25" s="0"/>
+      <c r="BS25" s="0"/>
+      <c r="BT25" s="0"/>
+      <c r="BU25" s="0"/>
+      <c r="BV25" s="0"/>
+      <c r="BW25" s="0"/>
+      <c r="BX25" s="0"/>
+      <c r="BY25" s="0"/>
+      <c r="BZ25" s="0"/>
+      <c r="CA25" s="0"/>
+      <c r="CB25" s="0"/>
+      <c r="CC25" s="0"/>
+      <c r="CD25" s="0"/>
+      <c r="CE25" s="0"/>
+      <c r="CF25" s="0"/>
+      <c r="CG25" s="0"/>
+      <c r="CH25" s="0"/>
+      <c r="CI25" s="0"/>
+      <c r="CJ25" s="0"/>
+      <c r="CK25" s="0"/>
+      <c r="CL25" s="0"/>
+      <c r="CM25" s="0"/>
+      <c r="CN25" s="0"/>
+      <c r="CO25" s="0"/>
+      <c r="CP25" s="0"/>
+      <c r="CQ25" s="0"/>
+      <c r="AMJ25" s="0"/>
+    </row>
+    <row r="26" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C26" s="7" t="n">
+        <v>32113</v>
+      </c>
+      <c r="E26" s="6" t="n">
+        <v>22.2</v>
+      </c>
+      <c r="F26" s="0"/>
+      <c r="G26" s="0"/>
+      <c r="H26" s="0"/>
+      <c r="I26" s="0"/>
+      <c r="J26" s="0"/>
+      <c r="K26" s="0"/>
+      <c r="L26" s="0"/>
+      <c r="M26" s="0"/>
+      <c r="N26" s="0"/>
+      <c r="O26" s="0"/>
+      <c r="P26" s="0"/>
+      <c r="Q26" s="0"/>
+      <c r="R26" s="0"/>
+      <c r="S26" s="0"/>
+      <c r="T26" s="0"/>
+      <c r="U26" s="0"/>
+      <c r="V26" s="0"/>
+      <c r="W26" s="0"/>
+      <c r="X26" s="0"/>
+      <c r="Y26" s="0"/>
+      <c r="Z26" s="0"/>
+      <c r="AA26" s="0"/>
+      <c r="AB26" s="0"/>
+      <c r="AC26" s="0"/>
+      <c r="AD26" s="0"/>
+      <c r="AE26" s="0"/>
+      <c r="AF26" s="0"/>
+      <c r="AG26" s="0"/>
+      <c r="AH26" s="0"/>
+      <c r="AI26" s="0"/>
+      <c r="AJ26" s="0"/>
+      <c r="AK26" s="0"/>
+      <c r="AL26" s="0"/>
+      <c r="AM26" s="0"/>
+      <c r="AN26" s="0"/>
+      <c r="AO26" s="0"/>
+      <c r="AP26" s="0"/>
+      <c r="AQ26" s="0"/>
+      <c r="AR26" s="0"/>
+      <c r="AS26" s="0"/>
+      <c r="AT26" s="0"/>
+      <c r="AU26" s="0"/>
+      <c r="AV26" s="0"/>
+      <c r="AW26" s="0"/>
+      <c r="AX26" s="0"/>
+      <c r="AY26" s="0"/>
+      <c r="AZ26" s="0"/>
+      <c r="BA26" s="0"/>
+      <c r="BB26" s="0"/>
+      <c r="BC26" s="0"/>
+      <c r="BD26" s="0"/>
+      <c r="BE26" s="0"/>
+      <c r="BF26" s="0"/>
+      <c r="BG26" s="0"/>
+      <c r="BH26" s="0"/>
+      <c r="BI26" s="0"/>
+      <c r="BJ26" s="0"/>
+      <c r="BK26" s="0"/>
+      <c r="BL26" s="0"/>
+      <c r="BM26" s="0"/>
+      <c r="BN26" s="0"/>
+      <c r="BO26" s="0"/>
+      <c r="BP26" s="0"/>
+      <c r="BQ26" s="0"/>
+      <c r="BR26" s="0"/>
+      <c r="BS26" s="0"/>
+      <c r="BT26" s="0"/>
+      <c r="BU26" s="0"/>
+      <c r="BV26" s="0"/>
+      <c r="BW26" s="0"/>
+      <c r="BX26" s="0"/>
+      <c r="BY26" s="0"/>
+      <c r="BZ26" s="0"/>
+      <c r="CA26" s="0"/>
+      <c r="CB26" s="0"/>
+      <c r="CC26" s="0"/>
+      <c r="CD26" s="0"/>
+      <c r="CE26" s="0"/>
+      <c r="CF26" s="0"/>
+      <c r="CG26" s="0"/>
+      <c r="CH26" s="0"/>
+      <c r="CI26" s="0"/>
+      <c r="CJ26" s="0"/>
+      <c r="CK26" s="0"/>
+      <c r="CL26" s="0"/>
+      <c r="CM26" s="0"/>
+      <c r="CN26" s="0"/>
+      <c r="CO26" s="0"/>
+      <c r="CP26" s="0"/>
+      <c r="CQ26" s="0"/>
+      <c r="AMJ26" s="0"/>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C29" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="D29" s="0" t="n">
+        <f aca="false">_xlfn.T.TEST(E2:E13,E14:E26, 2, 2)</f>
+        <v>0.0706337590562887</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C30" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="D30" s="10" t="n">
+        <f aca="false">_xlfn.T.TEST(E2:E13,E14:E26,1,2)</f>
+        <v>0.0353168795281444</v>
+      </c>
+      <c r="E30" s="11" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L33" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="M33" s="0" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K34" s="0" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K35" s="0" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L37" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="M37" s="0" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K38" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="L38" s="0" t="n">
+        <f aca="false">AVERAGE(E2:E13)</f>
+        <v>47.9</v>
+      </c>
+      <c r="M38" s="0" t="n">
+        <f aca="false">STDEV(E2:E13)</f>
+        <v>28.9856077139234</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K39" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="L39" s="0" t="n">
+        <f aca="false">AVERAGE(E14:E26)</f>
+        <v>31.6</v>
+      </c>
+      <c r="M39" s="0" t="n">
+        <f aca="false">STDEV(E15:E26)</f>
+        <v>10.8548132041491</v>
+      </c>
+    </row>
+  </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -324,5 +2528,6 @@
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>